--- a/public/data.xlsx
+++ b/public/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sobi\landing page\naming\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0EA1702-2BE4-4D20-BB69-C0F77F32E6E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB05FC89-C37D-4C3C-ABBE-751AA95DE2C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2595" yWindow="2595" windowWidth="28800" windowHeight="15435" xr2:uid="{01C1FC58-B35C-44CE-A583-C5DE23601C4F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{01C1FC58-B35C-44CE-A583-C5DE23601C4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,12 +39,6 @@
     <t>PACs 7070E2</t>
   </si>
   <si>
-    <t>صفحه نمایش 7 اینچ - با وضوح 480 * 800 پیکسل - امکان 3 عدد ورودی (24 بیت) یا خروجی آنالوگ  (12 / 16 بیت) - به صورت آپشنال - 8 کانال ورودی دیجیتال ایزوله ( 4 عدد سرعت بالا / 4 عدد معمولی NPN/PNP ) عدد 12 خروجی دیجیتال ایزوله ( ترانزیستوری / رله ای ) 4 عدد PWM ( عدد 2 پیشرفته / 2 عدد معمولی با سرعت 100 کیلوهرتز) - دارای آلارم شنیداری -  2 پورت مدباس 485 و یک پورت اترنت ETHERNET - قیمت با توجه به آپشن های درخواستی تعیین میشود.</t>
-  </si>
-  <si>
-    <t>صفحه نمایش 10.1 اینچ TFT با وضوح نمایش 600 * 1024 پیکسل و 65 هزار رنگ - حسگر لمسی مقاومتی - با امکان اضافه 4 آنالوگ به صورت ورودی (24 بیتی )  یا خروجی ( 12 / 16 بیتی ) - 12 کانال ورودی دیجیتال ایزوله و 20 کانال خروجی دیجیتال ایزوله -</t>
-  </si>
-  <si>
     <t>PACs 7035E</t>
   </si>
   <si>
@@ -69,9 +63,6 @@
     <t>کارت خروجی آنالوگ 12 بیتی</t>
   </si>
   <si>
-    <t>خروجی رله 5 آمپر/مجموع 5 کانال حداکثر 15آمپر</t>
-  </si>
-  <si>
     <t>num</t>
   </si>
   <si>
@@ -84,16 +75,25 @@
     <t>description</t>
   </si>
   <si>
-    <t>صفحه نمایش 3.5 اینچ TFT با وضوح نمایش 240 * 320 پیکسل و 65 هزار رنگ - حسگر لمسی مقاومتی - 5 ورودی دیجیتال ایزوله و 5 خروجی دیجیتال ایزوله از نوع ترانزیستور PNP /رله ای- دارای آلارم شنیداری</t>
-  </si>
-  <si>
     <t>Lan</t>
   </si>
   <si>
-    <t xml:space="preserve"> پورت اترنت</t>
-  </si>
-  <si>
     <t xml:space="preserve"> خروجی رله</t>
+  </si>
+  <si>
+    <t>خروجی رله 5 آمپر/مجموع 5 کانال حداکثر 12آمپر</t>
+  </si>
+  <si>
+    <t>دارای پورت اترنت</t>
+  </si>
+  <si>
+    <t>HMI با PLC داخلی با صفحه نمایش 7 اینچ ( وضوح 480*800 پیکسل و 65 هزار رنگ) دارای حسگر لمسی مقاومتی (Resistive Touch Screen ) و دارای 8 عدد ورودی ایزوله - دارای  دو عدد پورت RS485 -دارای پورت اترنت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMI با PLC داخلی با صفحه نمایش 3.5 اینچ (وضوح 240*320پیکسل و 65 هزار رنگ) دارای حسگر لمسی مقاومتی (Resistive Touch Screen ) ودارای 5 عدد ورودی ایزوله -  دارای یک عدد پورت RS485 </t>
+  </si>
+  <si>
+    <t>HMI با PLC داخلی با صفحه نمایش 10.1 اینچ ( وضوح 600 * 1024 پیکسل و 65 هزار رنگ) دارای حسگر لمسی مقاومتی (Resistive Touch Screen ) ودارای 12 عدد ورودی ایزوله  - دارای  دو عدد پورت RS485 -دارای پورت اترنت</t>
   </si>
 </sst>
 </file>
@@ -112,12 +112,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="14"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="B Nazanin"/>
       <charset val="178"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -250,27 +248,69 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -282,6 +322,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -290,57 +336,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -662,209 +657,212 @@
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="F4" sqref="F4:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.875" bestFit="1" customWidth="1"/>
     <col min="14" max="22" width="20.625" customWidth="1"/>
     <col min="23" max="23" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8">
+        <v>86400000</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="11"/>
+    </row>
+    <row r="3" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14">
+        <v>114450000</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="17"/>
+    </row>
+    <row r="4" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14">
+        <v>172500000</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="17"/>
+    </row>
+    <row r="5" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="18">
+        <v>3</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="21">
+        <v>2400000</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="24"/>
+    </row>
+    <row r="6" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="18">
+        <v>4</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="5" t="s">
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="25">
+        <v>2220000</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+    </row>
+    <row r="7" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="18">
+        <v>5</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="21">
+        <v>4150000</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="24"/>
+    </row>
+    <row r="8" spans="1:17" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="18">
+        <v>6</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="21">
+        <v>11080000</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="24"/>
+    </row>
+    <row r="9" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="18">
+        <v>7</v>
+      </c>
+      <c r="B9" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="C9" s="28"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="21">
+        <v>520000</v>
+      </c>
+      <c r="F9" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-    </row>
-    <row r="2" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
-        <v>0</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="4">
-        <v>86400000</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="18"/>
-    </row>
-    <row r="3" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
-        <v>1</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="1">
-        <v>114450000</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="23"/>
-    </row>
-    <row r="4" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
-        <v>2</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="1">
-        <v>172500000</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="23"/>
-    </row>
-    <row r="5" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
-        <v>3</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="2">
-        <v>2400000</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="10"/>
-    </row>
-    <row r="6" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
-        <v>4</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="3">
-        <v>2220000</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-    </row>
-    <row r="7" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
-        <v>5</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="2">
-        <v>4150000</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="10"/>
-    </row>
-    <row r="8" spans="1:17" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
-        <v>6</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="2">
-        <v>11080000</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="10"/>
-    </row>
-    <row r="9" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
-        <v>7</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="2">
-        <v>520000</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="10"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="24"/>
     </row>
     <row r="10" spans="1:17" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N10" s="29"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="B4:D4"/>
     <mergeCell ref="O10:Q10"/>
     <mergeCell ref="F9:J9"/>
     <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="B8:D8"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="F2:J2"/>
     <mergeCell ref="B1:D1"/>
@@ -873,12 +871,10 @@
     <mergeCell ref="F6:J6"/>
     <mergeCell ref="F3:J3"/>
     <mergeCell ref="F5:J5"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="B7:D7"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="71" fitToWidth="3" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/public/data.xlsx
+++ b/public/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sobi\landing page\naming\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB05FC89-C37D-4C3C-ABBE-751AA95DE2C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3BB336-DF94-40F2-A20A-0C8E19ED16DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{01C1FC58-B35C-44CE-A583-C5DE23601C4F}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{01C1FC58-B35C-44CE-A583-C5DE23601C4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="93">
   <si>
     <t>PACs 7070E2</t>
   </si>
@@ -94,6 +94,225 @@
   </si>
   <si>
     <t>HMI با PLC داخلی با صفحه نمایش 10.1 اینچ ( وضوح 600 * 1024 پیکسل و 65 هزار رنگ) دارای حسگر لمسی مقاومتی (Resistive Touch Screen ) ودارای 12 عدد ورودی ایزوله  - دارای  دو عدد پورت RS485 -دارای پورت اترنت</t>
+  </si>
+  <si>
+    <t>PACs 5100</t>
+  </si>
+  <si>
+    <t>16 ورودی دیجیتال ایزوله PNP , NPN</t>
+  </si>
+  <si>
+    <t>16 خروجی دیجیتال ترانزیستوری PNP</t>
+  </si>
+  <si>
+    <t>PACs 5120</t>
+  </si>
+  <si>
+    <t>16 خروجی دیجیتال رله ای</t>
+  </si>
+  <si>
+    <t>PACs 5130</t>
+  </si>
+  <si>
+    <t>8 ورودی دیجیتال PNP و 8 خروجی دیجیتال ایزوله ترانزیستوری PNP</t>
+  </si>
+  <si>
+    <t>PACs 5131</t>
+  </si>
+  <si>
+    <t>8 ورودی دیجیتال PNP و 8 خروجی دیجیتال ایزوله PNP رله ای</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 ورودی دیجیتال ایزوله PNP و 4 خروجی دیجیتال ایزوله ترانزیستوری - </t>
+  </si>
+  <si>
+    <t>NIC 500AI</t>
+  </si>
+  <si>
+    <t>4 ورودی دیجیتال ایزوله PNP و 4 خروجی دیجیتال ایزوله ترانزیستوری - 1 ورودی آنالوگ</t>
+  </si>
+  <si>
+    <t>4 ورودی دیجیتال ایزوله PNP و 4 خروجی دیجیتال ایزوله ترانزیستوری - 1 ورودی و 1 خروجی آنالوگ</t>
+  </si>
+  <si>
+    <t>PACs 5250</t>
+  </si>
+  <si>
+    <t>8 ورودی آنالوگ 24 بیتی</t>
+  </si>
+  <si>
+    <t>PACs 6100</t>
+  </si>
+  <si>
+    <t>PACs 6100-SD</t>
+  </si>
+  <si>
+    <t>16 ورودی دیجیتال ایزوله PNP , NPN- توانایی ذخیره اطلاعات (LOGGING)</t>
+  </si>
+  <si>
+    <t>PACs 6110</t>
+  </si>
+  <si>
+    <t>PACs 6110-SD</t>
+  </si>
+  <si>
+    <t>16 خروجی دیجیتال ترانزیستوری PNP- توانایی ذخیره اطلاعات (LOGGING)</t>
+  </si>
+  <si>
+    <t>PACs 6120</t>
+  </si>
+  <si>
+    <t>PACS 6120-SD</t>
+  </si>
+  <si>
+    <t>16 خروجی دیجیتال رله ای- توانایی ذخیره اطلاعات (LOGGING)</t>
+  </si>
+  <si>
+    <t>PACs 6130</t>
+  </si>
+  <si>
+    <t>PACs 6130-SD</t>
+  </si>
+  <si>
+    <t>8 ورودی دیجیتال PNP و 8 خروجی دیجیتال ایزوله ترانزیستوری PNP-  توانایی ذخیره اطلاعات (LOGGING)</t>
+  </si>
+  <si>
+    <t>PACs 6131</t>
+  </si>
+  <si>
+    <t>PACs 6131-SD</t>
+  </si>
+  <si>
+    <t>8 ورودی دیجیتال PNP و 8 خروجی دیجیتال ایزوله PNP رله ای - توانایی ذخیره اطلاعات (LOGGING)</t>
+  </si>
+  <si>
+    <t>PACs 6400-SD</t>
+  </si>
+  <si>
+    <t>یک درگاه RS232 با قابلیت اتصال به مودم های GSM , GPRS و 3 درگاه RS485 و یک درگاه ETHERNET- توانایی ذخیره اطلاعات (LOGGING)</t>
+  </si>
+  <si>
+    <t>PACs 6250</t>
+  </si>
+  <si>
+    <t>PACs 6250-SD</t>
+  </si>
+  <si>
+    <t>8 ورودی آنالوگ 24 بیتی- توانایی ذخیره اطلاعات (LOGGING)</t>
+  </si>
+  <si>
+    <t>PACs 6240</t>
+  </si>
+  <si>
+    <t>4 ورودی آنالوگ 24 بیتی- 4 خروجی آنالوگ 12/16 بیتی(0-5V و 0-10V-/ جریان 0-20mA- 4-20mA- 0-24mA)</t>
+  </si>
+  <si>
+    <t>PACs 6240-SD</t>
+  </si>
+  <si>
+    <t>4 ورودی آنالوگ 24 بیتی- 4 خروجی آنالوگ16/12 بیتی(0-5V و 0-10V-/ جریان 0-20mA- 4-20mA- 0-24mA/ توانایی ذخیره اطلاعات (LOGGING)</t>
+  </si>
+  <si>
+    <t>PACs 6240AI</t>
+  </si>
+  <si>
+    <t>4 ورودی آنالوگ 24 بیتی</t>
+  </si>
+  <si>
+    <t>PACs 6240AI-SD</t>
+  </si>
+  <si>
+    <t>4 ورودی آنالوگ 24 بیتی-  توانایی ذخیره اطلاعات (LOGGING)</t>
+  </si>
+  <si>
+    <t>PACs 6240 AO</t>
+  </si>
+  <si>
+    <t>4 خروجی آنالوگ 12 بیتی-ولتاژ (0-5V و 0-10V-/ جریان 0-20mA- 4-20mA- 0-24mA)</t>
+  </si>
+  <si>
+    <t>PACs 6240AO-SD</t>
+  </si>
+  <si>
+    <t>4 خروجی آنالوگ 12/16 بیتی-ولتاژ (0-5V و 0-10V-/ جریان 0-20mA- 4-20mA- 0-24mA)- توانایی ذخیره اطلاعات (LOGGING)</t>
+  </si>
+  <si>
+    <t>PACs 6240DO</t>
+  </si>
+  <si>
+    <t>4 ورودی آنالوگ 24 بیتی- 4 خروجی دیجیتال</t>
+  </si>
+  <si>
+    <t>PACs 6240DO-SD</t>
+  </si>
+  <si>
+    <t>4 ورودی آنالوگ 24 بیتی- 4 خروجی دیجیتال- توانایی ذخیره اطلاعات (LOGGING)</t>
+  </si>
+  <si>
+    <t>MAC-T4</t>
+  </si>
+  <si>
+    <t>ماژول 4 کانال ترموکوپل (J, K) - خروجی RS485</t>
+  </si>
+  <si>
+    <t>MAC-A4</t>
+  </si>
+  <si>
+    <t>ماژول 4 کانال ورودی آنالوگ(24 بیتی) - خروجی RS485</t>
+  </si>
+  <si>
+    <t>MAC-DT1</t>
+  </si>
+  <si>
+    <t>سنسور دیجیتال دما (40- تا 135) خروجی RS485</t>
+  </si>
+  <si>
+    <t>MAC-DTH1</t>
+  </si>
+  <si>
+    <t>سنسور  دیجیتال دما و رطوبت - دما:40- تا 135 و رطوبت 0 تا 100% - نقطه شبنم /خروجی RS485- مجهز به فیلتر محافظ غبار</t>
+  </si>
+  <si>
+    <t>FUC485</t>
+  </si>
+  <si>
+    <t>این مبدل که به صورت یک COM پورت بر روی کامپیوتر نصب میشود ، می توان به شبکه های RS485 متصل شد.</t>
+  </si>
+  <si>
+    <t>FUC485-ISO</t>
+  </si>
+  <si>
+    <t>این مبدل که به صورت یک COM پورت بر روی کامپیوتر نصب میشود ، می توان به شبکه های RS485 متصل شد- 485 ایزوله</t>
+  </si>
+  <si>
+    <t>POWER SUPPLY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">منبع تغذیه 2 آمپر خروجی،  24 ولت </t>
+  </si>
+  <si>
+    <t>RELAY BOARD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کارت رله 2 کانال امرون پایه دار - 12 آمپر </t>
+  </si>
+  <si>
+    <t>کارت رله 4 کانال امرون پایه دار- 12 آمپر</t>
+  </si>
+  <si>
+    <t>کارت رله 6 کانال امرون پایه دار- 12 آمپر</t>
+  </si>
+  <si>
+    <t>کارت رله 8 کانال امرون پایه دار - 12 آمپر</t>
+  </si>
+  <si>
+    <t>PACs 5110</t>
+  </si>
+  <si>
+    <t>NIC 500</t>
+  </si>
+  <si>
+    <t>NIC 500 +</t>
   </si>
 </sst>
 </file>
@@ -103,7 +322,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;ريال&quot;\ #,##0_-;&quot;ريال&quot;\ #,##0\-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,8 +336,30 @@
       <name val="B Nazanin"/>
       <charset val="178"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="178"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -143,8 +384,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF11FF7D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -244,90 +515,302 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -336,6 +819,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -654,208 +1140,1031 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:J4"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.625" customWidth="1"/>
+    <col min="10" max="10" width="72.375" customWidth="1"/>
+    <col min="11" max="11" width="75" customWidth="1"/>
     <col min="14" max="22" width="20.625" customWidth="1"/>
     <col min="23" max="23" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="3" t="s">
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
     </row>
     <row r="2" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+      <c r="A2" s="3">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8">
+      <c r="C2" s="74"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="4">
         <v>86400000</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="11"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="78"/>
     </row>
     <row r="3" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14">
+      <c r="C3" s="88"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="5">
         <v>114450000</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="17"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="83"/>
     </row>
     <row r="4" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14">
+      <c r="C4" s="88"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="5">
         <v>172500000</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="17"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="83"/>
     </row>
     <row r="5" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="21">
+      <c r="C5" s="80"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="7">
         <v>2400000</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="24"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="86"/>
     </row>
     <row r="6" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="25">
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="8">
         <v>2220000</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
     </row>
     <row r="7" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="21">
+      <c r="C7" s="80"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="7">
         <v>4150000</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="24"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="86"/>
     </row>
     <row r="8" spans="1:17" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="18">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="21">
+      <c r="C8" s="80"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="7">
         <v>11080000</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="24"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="86"/>
     </row>
     <row r="9" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="21">
+      <c r="C9" s="92"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="7">
         <v>520000</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="24"/>
-    </row>
-    <row r="10" spans="1:17" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="86"/>
+    </row>
+    <row r="10" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="20">
+        <v>8</v>
+      </c>
+      <c r="B10" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="63"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="9">
+        <v>26796000</v>
+      </c>
+      <c r="F10" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="70"/>
       <c r="N10" s="1"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
+      <c r="O10" s="90"/>
+      <c r="P10" s="90"/>
+      <c r="Q10" s="90"/>
+    </row>
+    <row r="11" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="20">
+        <v>9</v>
+      </c>
+      <c r="B11" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="63"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="9">
+        <v>29425000</v>
+      </c>
+      <c r="F11" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="70"/>
+    </row>
+    <row r="12" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="20">
+        <v>10</v>
+      </c>
+      <c r="B12" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="63"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="9">
+        <v>33770000</v>
+      </c>
+      <c r="F12" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="70"/>
+    </row>
+    <row r="13" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="20">
+        <v>11</v>
+      </c>
+      <c r="B13" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="63"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="9">
+        <v>28270000.000000004</v>
+      </c>
+      <c r="F13" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="73"/>
+    </row>
+    <row r="14" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="20">
+        <v>12</v>
+      </c>
+      <c r="B14" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="63"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="9">
+        <v>28600000.000000004</v>
+      </c>
+      <c r="F14" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="70"/>
+    </row>
+    <row r="15" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="20">
+        <v>13</v>
+      </c>
+      <c r="B15" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="63"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="9">
+        <v>39875000</v>
+      </c>
+      <c r="F15" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="73"/>
+    </row>
+    <row r="16" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="20">
+        <v>14</v>
+      </c>
+      <c r="B16" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="63"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="9">
+        <v>43505000</v>
+      </c>
+      <c r="F16" s="71" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="73"/>
+    </row>
+    <row r="17" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="20">
+        <v>15</v>
+      </c>
+      <c r="B17" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="57"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="10">
+        <v>50435000.000000007</v>
+      </c>
+      <c r="F17" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="61"/>
+    </row>
+    <row r="18" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="20">
+        <v>16</v>
+      </c>
+      <c r="B18" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="63"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="9">
+        <v>71005000</v>
+      </c>
+      <c r="F18" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="67"/>
+    </row>
+    <row r="19" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="21">
+        <v>17</v>
+      </c>
+      <c r="B19" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="47"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="11">
+        <v>53020000.000000007</v>
+      </c>
+      <c r="F19" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+    </row>
+    <row r="20" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="21">
+        <v>18</v>
+      </c>
+      <c r="B20" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="11">
+        <v>57200000.000000007</v>
+      </c>
+      <c r="F20" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+    </row>
+    <row r="21" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="47"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="11">
+        <v>55770000.000000007</v>
+      </c>
+      <c r="F21" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+    </row>
+    <row r="22" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="21">
+        <v>20</v>
+      </c>
+      <c r="B22" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="47"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="11">
+        <v>60060000.000000007</v>
+      </c>
+      <c r="F22" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+    </row>
+    <row r="23" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="21">
+        <v>21</v>
+      </c>
+      <c r="B23" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="47"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="11">
+        <v>60500000.000000007</v>
+      </c>
+      <c r="F23" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
+    </row>
+    <row r="24" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="21">
+        <v>22</v>
+      </c>
+      <c r="B24" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="47"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="11">
+        <v>64020000.000000007</v>
+      </c>
+      <c r="F24" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+    </row>
+    <row r="25" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="21">
+        <v>23</v>
+      </c>
+      <c r="B25" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="47"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="11">
+        <v>54890000.000000007</v>
+      </c>
+      <c r="F25" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+    </row>
+    <row r="26" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="21">
+        <v>24</v>
+      </c>
+      <c r="B26" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="47"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="11">
+        <v>58685000.000000007</v>
+      </c>
+      <c r="F26" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="54"/>
+    </row>
+    <row r="27" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="21">
+        <v>25</v>
+      </c>
+      <c r="B27" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="47"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="11">
+        <v>56100000.000000007</v>
+      </c>
+      <c r="F27" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
+    </row>
+    <row r="28" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="21">
+        <v>26</v>
+      </c>
+      <c r="B28" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="47"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="11">
+        <v>60775000.000000007</v>
+      </c>
+      <c r="F28" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
+    </row>
+    <row r="29" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="21">
+        <v>27</v>
+      </c>
+      <c r="B29" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="47"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="11">
+        <v>60775000.000000007</v>
+      </c>
+      <c r="F29" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
+    </row>
+    <row r="30" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="21">
+        <v>28</v>
+      </c>
+      <c r="B30" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="47"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="11">
+        <v>95040000.000000015</v>
+      </c>
+      <c r="F30" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+    </row>
+    <row r="31" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="21">
+        <v>29</v>
+      </c>
+      <c r="B31" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="47"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="11">
+        <v>99880000.000000015</v>
+      </c>
+      <c r="F31" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+    </row>
+    <row r="32" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="21">
+        <v>30</v>
+      </c>
+      <c r="B32" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="47"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="11">
+        <v>127875000.00000001</v>
+      </c>
+      <c r="F32" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="55"/>
+    </row>
+    <row r="33" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="21">
+        <v>31</v>
+      </c>
+      <c r="B33" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="47"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="11">
+        <v>131560000.00000001</v>
+      </c>
+      <c r="F33" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="55"/>
+    </row>
+    <row r="34" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="21">
+        <v>32</v>
+      </c>
+      <c r="B34" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="47"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="11">
+        <v>77968000</v>
+      </c>
+      <c r="F34" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="G34" s="50"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="50"/>
+    </row>
+    <row r="35" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="21">
+        <v>33</v>
+      </c>
+      <c r="B35" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="47"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="11">
+        <v>82500000</v>
+      </c>
+      <c r="F35" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
+    </row>
+    <row r="36" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="21">
+        <v>34</v>
+      </c>
+      <c r="B36" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="47"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="11">
+        <v>106480000.00000001</v>
+      </c>
+      <c r="F36" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="G36" s="55"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="55"/>
+    </row>
+    <row r="37" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="21">
+        <v>35</v>
+      </c>
+      <c r="B37" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="47"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="11">
+        <v>110605000.00000001</v>
+      </c>
+      <c r="F37" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="G37" s="55"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="55"/>
+    </row>
+    <row r="38" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="21">
+        <v>36</v>
+      </c>
+      <c r="B38" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="47"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="11">
+        <v>85140000</v>
+      </c>
+      <c r="F38" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="G38" s="50"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="50"/>
+    </row>
+    <row r="39" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="21">
+        <v>37</v>
+      </c>
+      <c r="B39" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" s="52"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="11">
+        <v>87780000</v>
+      </c>
+      <c r="F39" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="G39" s="55"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="55"/>
+      <c r="J39" s="55"/>
+    </row>
+    <row r="40" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="6">
+        <v>38</v>
+      </c>
+      <c r="B40" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="44"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="15">
+        <v>46772000.000000007</v>
+      </c>
+      <c r="F40" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="29"/>
+    </row>
+    <row r="41" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="6">
+        <v>39</v>
+      </c>
+      <c r="B41" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" s="44"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="15">
+        <v>46772000.000000007</v>
+      </c>
+      <c r="F41" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="32"/>
+    </row>
+    <row r="42" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="6">
+        <v>40</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" s="13"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="15">
+        <v>14905000.000000002</v>
+      </c>
+      <c r="F42" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="29"/>
+    </row>
+    <row r="43" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="6">
+        <v>41</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="13"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="15">
+        <v>20680000</v>
+      </c>
+      <c r="F43" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="32"/>
+    </row>
+    <row r="44" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="22">
+        <v>42</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="24"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="16">
+        <v>8492000</v>
+      </c>
+      <c r="F44" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="39"/>
+    </row>
+    <row r="45" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="22">
+        <v>43</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" s="24"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="16">
+        <v>13860000.000000002</v>
+      </c>
+      <c r="F45" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="G45" s="41"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="41"/>
+      <c r="J45" s="42"/>
+    </row>
+    <row r="46" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="22">
+        <v>44</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" s="24"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="16">
+        <v>10714000</v>
+      </c>
+      <c r="F46" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="G46" s="41"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="42"/>
+    </row>
+    <row r="47" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="22">
+        <v>45</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" s="18"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="16">
+        <v>6215000.0000000009</v>
+      </c>
+      <c r="F47" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="G47" s="35"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="36"/>
+    </row>
+    <row r="48" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="22">
+        <v>46</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" s="18"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="16">
+        <v>10120000</v>
+      </c>
+      <c r="F48" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="G48" s="35"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="35"/>
+      <c r="J48" s="36"/>
+    </row>
+    <row r="49" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="22">
+        <v>47</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" s="18"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="16">
+        <v>14500000</v>
+      </c>
+      <c r="F49" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="G49" s="35"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="35"/>
+      <c r="J49" s="36"/>
+    </row>
+    <row r="50" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="22">
+        <v>48</v>
+      </c>
+      <c r="B50" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" s="33"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="16">
+        <v>19320000</v>
+      </c>
+      <c r="F50" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="G50" s="33"/>
+      <c r="H50" s="33"/>
+      <c r="I50" s="33"/>
+      <c r="J50" s="33"/>
+    </row>
+    <row r="51" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="93">
     <mergeCell ref="O10:Q10"/>
     <mergeCell ref="F9:J9"/>
     <mergeCell ref="B9:D9"/>
@@ -863,6 +2172,8 @@
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="F8:J8"/>
     <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:J10"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="F2:J2"/>
     <mergeCell ref="B1:D1"/>
@@ -875,6 +2186,78 @@
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="F4:J4"/>
     <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="F28:J28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:J29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:J30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="F31:J31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="F32:J32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="F33:J33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="F34:J34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="F35:J35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="F36:J36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="F37:J37"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="F41:J41"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="F38:J38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="F39:J39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="F40:J40"/>
+    <mergeCell ref="F42:J42"/>
+    <mergeCell ref="F43:J43"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="F50:J50"/>
+    <mergeCell ref="F47:J47"/>
+    <mergeCell ref="F48:J48"/>
+    <mergeCell ref="F49:J49"/>
+    <mergeCell ref="F44:J44"/>
+    <mergeCell ref="F45:J45"/>
+    <mergeCell ref="F46:J46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="71" fitToWidth="3" fitToHeight="0" orientation="portrait" r:id="rId1"/>
